--- a/grades.xlsx
+++ b/grades.xlsx
@@ -38,8 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -603,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -701,16 +701,16 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
